--- a/data/donnees_AGRIVET FIANARANTSOA_2023-07-24.xlsx
+++ b/data/donnees_AGRIVET FIANARANTSOA_2023-07-24.xlsx
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-23095930</v>
+        <v>-24620330</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>12669500</v>
@@ -637,7 +637,7 @@
         <v>9288250</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>8860320</v>
+        <v>7335920</v>
       </c>
     </row>
     <row r="6">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-1520600</v>
+        <v>-5318400</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>5184582</v>
@@ -777,7 +777,7 @@
         <v>1020259.5</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>4684241.5</v>
+        <v>886441.5</v>
       </c>
     </row>
     <row r="10">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-29288840</v>
+        <v>-30888840</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>9206800</v>
@@ -1092,7 +1092,7 @@
         <v>751250</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>-9402840</v>
+        <v>-11002840</v>
       </c>
     </row>
     <row r="19">
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-12244600</v>
+        <v>-12596100</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>7827500</v>
@@ -1232,7 +1232,7 @@
         <v>2935400</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>890100</v>
+        <v>538600</v>
       </c>
     </row>
     <row r="23">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-2500400</v>
+        <v>-3522900</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>2000000</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>1022100</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="28">
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-27809222.5</v>
+        <v>-29588722.5</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>11785700</v>
@@ -1442,7 +1442,7 @@
         <v>12531850</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>9258087.5</v>
+        <v>7478587.5</v>
       </c>
     </row>
     <row r="29">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-28979250</v>
+        <v>-30459250</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>8895300</v>
@@ -1547,7 +1547,7 @@
         <v>17554900</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>4051600</v>
+        <v>2571600</v>
       </c>
     </row>
     <row r="32">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-15097000</v>
+        <v>-17519800</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>7313000</v>
@@ -1722,7 +1722,7 @@
         <v>12345097</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>5921097</v>
+        <v>3498297</v>
       </c>
     </row>
     <row r="37">
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-22133600</v>
+        <v>-24607600</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>15419200</v>
@@ -2352,7 +2352,7 @@
         <v>5982400</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>7850000</v>
+        <v>5376000</v>
       </c>
     </row>
     <row r="55">
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-910500</v>
+        <v>-1315200</v>
       </c>
       <c r="E60" s="2" t="n">
         <v>400000</v>
@@ -2562,7 +2562,7 @@
         <v>1322500</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>412000</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="61">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-3026700</v>
+        <v>-6452700</v>
       </c>
       <c r="E65" s="2" t="n">
         <v>1665000</v>
@@ -2737,7 +2737,7 @@
         <v>1605600</v>
       </c>
       <c r="I65" s="2" t="n">
-        <v>4425900</v>
+        <v>999900</v>
       </c>
     </row>
     <row r="66">
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>-10495750</v>
+        <v>-11513250</v>
       </c>
       <c r="E66" s="2" t="n">
         <v>3068650</v>
@@ -2772,7 +2772,7 @@
         <v>7291500</v>
       </c>
       <c r="I66" s="2" t="n">
-        <v>6362400</v>
+        <v>5344900</v>
       </c>
     </row>
     <row r="67">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>-22969503</v>
+        <v>-29133855</v>
       </c>
       <c r="E71" s="2" t="n">
         <v>24784950</v>
@@ -2947,7 +2947,7 @@
         <v>6705755</v>
       </c>
       <c r="I71" s="2" t="n">
-        <v>18675252</v>
+        <v>12510900</v>
       </c>
     </row>
     <row r="72">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>-25398000</v>
+        <v>-26878000</v>
       </c>
       <c r="E72" s="2" t="n">
         <v>10996500</v>
@@ -2982,7 +2982,7 @@
         <v>7331000</v>
       </c>
       <c r="I72" s="2" t="n">
-        <v>3588500</v>
+        <v>2108500</v>
       </c>
     </row>
     <row r="73">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>-1134200</v>
+        <v>-1874200</v>
       </c>
       <c r="E73" s="2" t="n">
         <v>7827750</v>
@@ -3017,7 +3017,7 @@
         <v>296000</v>
       </c>
       <c r="I73" s="2" t="n">
-        <v>7872900</v>
+        <v>7132900</v>
       </c>
     </row>
     <row r="74">
@@ -3247,7 +3247,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>-11734680.52</v>
+        <v>-14734680.52</v>
       </c>
       <c r="E80" s="2" t="n">
         <v>11973024.77</v>
@@ -3262,7 +3262,7 @@
         <v>8042750</v>
       </c>
       <c r="I80" s="2" t="n">
-        <v>16472494.25</v>
+        <v>13472494.25</v>
       </c>
     </row>
     <row r="81">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>-102160360</v>
+        <v>-106337960</v>
       </c>
       <c r="E85" s="2" t="n">
         <v>35477199.6</v>
@@ -3437,7 +3437,7 @@
         <v>6989609.4</v>
       </c>
       <c r="I85" s="2" t="n">
-        <v>-9210121.960000001</v>
+        <v>-13387721.96</v>
       </c>
     </row>
     <row r="86">
